--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:K12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,6 +711,20 @@
       <c r="K12">
         <f t="shared" si="0"/>
         <v>21.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <f>(150-C12)/150</f>
+        <v>0.8879999999999999</v>
+      </c>
+      <c r="G13">
+        <f>(150-G12)/150</f>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="K13">
+        <f>(150-K12)/150</f>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -749,6 +763,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -14,17 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>加权欧式距离下的som</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>标准化欧式距离下的som</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>欧式距离下的som</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四分位变异系数欧式距离下的som</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异系数som</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1.68</v>
       </c>
@@ -413,8 +417,17 @@
       <c r="K1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1">
+        <v>1.65</v>
+      </c>
+      <c r="N1">
+        <v>8.98</v>
+      </c>
+      <c r="O1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.68</v>
       </c>
@@ -442,8 +455,17 @@
       <c r="K2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M2">
+        <v>2.72</v>
+      </c>
+      <c r="N2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2.61</v>
       </c>
@@ -471,8 +493,17 @@
       <c r="K3">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>1.68</v>
+      </c>
+      <c r="N3">
+        <v>8.23</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1.87</v>
       </c>
@@ -500,8 +531,17 @@
       <c r="K4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>2.84</v>
+      </c>
+      <c r="N4">
+        <v>8.89</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1.87</v>
       </c>
@@ -529,8 +569,17 @@
       <c r="K5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>1.08</v>
+      </c>
+      <c r="N5">
+        <v>7.02</v>
+      </c>
+      <c r="O5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2.37</v>
       </c>
@@ -558,8 +607,17 @@
       <c r="K6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>8.68</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2.37</v>
       </c>
@@ -587,8 +645,17 @@
       <c r="K7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>2.62</v>
+      </c>
+      <c r="N7">
+        <v>8.98</v>
+      </c>
+      <c r="O7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2.19</v>
       </c>
@@ -616,8 +683,17 @@
       <c r="K8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>1.65</v>
+      </c>
+      <c r="N8">
+        <v>8.89</v>
+      </c>
+      <c r="O8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2.83</v>
       </c>
@@ -645,8 +721,17 @@
       <c r="K9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>2.06</v>
+      </c>
+      <c r="N9">
+        <v>8.98</v>
+      </c>
+      <c r="O9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1.36</v>
       </c>
@@ -674,8 +759,17 @@
       <c r="K10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>3.35</v>
+      </c>
+      <c r="N10">
+        <v>6.98</v>
+      </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>AVERAGE(A1:A10)</f>
         <v>2.0830000000000006</v>
@@ -712,8 +806,20 @@
         <f t="shared" si="0"/>
         <v>21.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <f>AVERAGE(M1:M10)</f>
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:O12" si="1">AVERAGE(N1:N10)</f>
+        <v>8.3850000000000016</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C13">
         <f>(150-C12)/150</f>
         <v>0.8879999999999999</v>
@@ -726,25 +832,34 @@
         <f>(150-K12)/150</f>
         <v>0.85399999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="O13">
+        <f>(150-O12)/150</f>
+        <v>0.8833333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -754,12 +869,16 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="E14:G15"/>
     <mergeCell ref="I14:K15"/>
+    <mergeCell ref="M14:O15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -14,7 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>四分位变异系数欧式距离下的som</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化欧式距离下的som</t>
+  </si>
   <si>
     <t>标准化欧式距离下的som</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,11 +31,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四分位变异系数欧式距离下的som</t>
+    <t>变异系数som</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧式距离下的som</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>变异系数som</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类间间距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类内间距</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J5">
-        <v>8.77</v>
+        <v>6.73</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>1.08</v>
@@ -751,13 +774,13 @@
         <v>21</v>
       </c>
       <c r="I10">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="J10">
-        <v>8.15</v>
+        <v>6.73</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>3.35</v>
@@ -796,15 +819,15 @@
       </c>
       <c r="I12">
         <f>AVERAGE(I1:I10)</f>
-        <v>2.3250000000000002</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:K12" si="0">AVERAGE(J1:J10)</f>
-        <v>7.6020000000000012</v>
+        <v>7.2560000000000002</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="M12">
         <f>AVERAGE(M1:M10)</f>
@@ -830,7 +853,7 @@
       </c>
       <c r="K13">
         <f>(150-K12)/150</f>
-        <v>0.85399999999999998</v>
+        <v>0.84066666666666667</v>
       </c>
       <c r="O13">
         <f>(150-O12)/150</f>
@@ -839,22 +862,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -873,6 +896,336 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1.61</v>
+      </c>
+      <c r="B23">
+        <v>1.91</v>
+      </c>
+      <c r="C23">
+        <v>1.65</v>
+      </c>
+      <c r="F23">
+        <v>6.96</v>
+      </c>
+      <c r="G23">
+        <v>6.73</v>
+      </c>
+      <c r="H23">
+        <v>8.98</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2.33</v>
+      </c>
+      <c r="B24">
+        <v>2.56</v>
+      </c>
+      <c r="C24">
+        <v>2.72</v>
+      </c>
+      <c r="F24">
+        <v>7.94</v>
+      </c>
+      <c r="G24">
+        <v>7.11</v>
+      </c>
+      <c r="H24">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B25">
+        <v>2.99</v>
+      </c>
+      <c r="C25">
+        <v>1.68</v>
+      </c>
+      <c r="F25">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G25">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H25">
+        <v>8.23</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2.36</v>
+      </c>
+      <c r="B26">
+        <v>2.38</v>
+      </c>
+      <c r="C26">
+        <v>2.84</v>
+      </c>
+      <c r="F26">
+        <v>7.51</v>
+      </c>
+      <c r="G26">
+        <v>7.19</v>
+      </c>
+      <c r="H26">
+        <v>8.89</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2.34</v>
+      </c>
+      <c r="B27">
+        <v>1.91</v>
+      </c>
+      <c r="C27">
+        <v>1.08</v>
+      </c>
+      <c r="F27">
+        <v>6.7</v>
+      </c>
+      <c r="G27">
+        <v>6.73</v>
+      </c>
+      <c r="H27">
+        <v>7.02</v>
+      </c>
+      <c r="K27">
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2.77</v>
+      </c>
+      <c r="B28">
+        <v>1.84</v>
+      </c>
+      <c r="C28">
+        <v>1.99</v>
+      </c>
+      <c r="F28">
+        <v>7.34</v>
+      </c>
+      <c r="G28">
+        <v>7.42</v>
+      </c>
+      <c r="H28">
+        <v>8.68</v>
+      </c>
+      <c r="K28">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2.36</v>
+      </c>
+      <c r="B29">
+        <v>2.56</v>
+      </c>
+      <c r="C29">
+        <v>2.62</v>
+      </c>
+      <c r="F29">
+        <v>7.51</v>
+      </c>
+      <c r="G29">
+        <v>7.11</v>
+      </c>
+      <c r="H29">
+        <v>8.98</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3.27</v>
+      </c>
+      <c r="B30">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C30">
+        <v>1.65</v>
+      </c>
+      <c r="F30">
+        <v>7.94</v>
+      </c>
+      <c r="G30">
+        <v>8.61</v>
+      </c>
+      <c r="H30">
+        <v>8.89</v>
+      </c>
+      <c r="K30">
+        <v>22</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3.27</v>
+      </c>
+      <c r="B31">
+        <v>1.91</v>
+      </c>
+      <c r="C31">
+        <v>2.06</v>
+      </c>
+      <c r="F31">
+        <v>7.94</v>
+      </c>
+      <c r="G31">
+        <v>6.73</v>
+      </c>
+      <c r="H31">
+        <v>8.98</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2.36</v>
+      </c>
+      <c r="B32">
+        <v>1.91</v>
+      </c>
+      <c r="C32">
+        <v>3.35</v>
+      </c>
+      <c r="F32">
+        <v>7.51</v>
+      </c>
+      <c r="G32">
+        <v>6.73</v>
+      </c>
+      <c r="H32">
+        <v>6.98</v>
+      </c>
+      <c r="K32">
+        <v>21</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A14:C15"/>
